--- a/Cadastro Representantes/Modelo - Inserir Despesas.XLSX
+++ b/Cadastro Representantes/Modelo - Inserir Despesas.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Representante" sheetId="1" r:id="rId1"/>
@@ -112,25 +112,25 @@
     <t>FUNCIONARIOS</t>
   </si>
   <si>
-    <t>LUIZ ANTONIO RODRIGUES</t>
-  </si>
-  <si>
-    <t>LUAN OLIVEIRA FARIAS</t>
-  </si>
-  <si>
-    <t>WESLEY DA SILVA</t>
-  </si>
-  <si>
-    <t>JOYCE OLIVEIRA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>CLOVIS CALDEIRA DE OLIVEIRA FILHO</t>
-  </si>
-  <si>
-    <t>THAINA OLIVEIRA POLETTO</t>
-  </si>
-  <si>
     <t>karen.rodrigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ ANTONIO RODRIGUES                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            LUAN OLIVEIRA FARIAS                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             WESLEY DA SILVA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                JOYCE OLIVEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOVIS CALDEIRA DE OLIVEIRA FILHO                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAINA OLIVEIRA POLETTO                           </t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,10 +780,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -792,10 +792,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -804,10 +804,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -816,10 +816,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -828,10 +828,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -840,10 +840,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D4" s="21">
         <f ca="1">NOW()</f>
-        <v>44420.403852314812</v>
+        <v>44434.446144675923</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="12"/>
       <c r="P7" s="8" t="str">
-        <f t="shared" ref="P6:P13" si="0">CONCATENATE(A7,";",B7,";",C7,";",D7,";",E7,";",F7,";",G7,";",H7,";",I7,";",J7,";",K7)</f>
+        <f t="shared" ref="P7:P13" si="0">CONCATENATE(A7,";",B7,";",C7,";",D7,";",E7,";",F7,";",G7,";",H7,";",I7,";",J7,";",K7)</f>
         <v>;;;;;;;;;0;110</v>
       </c>
       <c r="Q7" s="8" t="str">
